--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DemoExcels\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52093C8-5934-4A5E-8724-4C502FA2E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CB137-11D7-40F9-8F56-743648DAE2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4440194B-0379-4F64-885A-7710C3866B10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="相钰 - 个人视图" guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4440194B-0379-4F64-885A-7710C3866B10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -558,8 +558,23 @@
     <sortCondition ref="B4:B33"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
-      <selection activeCell="C438" sqref="C438"/>
+    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
+      <selection activeCell="D7" sqref="D7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
+      <selection activeCell="C238" sqref="C238"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
+      <selection activeCell="C529" sqref="C529"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -568,23 +583,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
-      <selection activeCell="C529" sqref="C529"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
-      <selection activeCell="C238" sqref="C238"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}">
-      <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
-      <selection activeCell="D7" sqref="D7"/>
+    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
+      <selection activeCell="C438" sqref="C438"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -5,30 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CB137-11D7-40F9-8F56-743648DAE2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B8CF7-787A-4FDF-A40E-AF2D64EC6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3255" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="相钰 - 个人视图" guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4440194B-0379-4F64-885A-7710C3866B10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,66 @@
   </si>
   <si>
     <t>测试文本</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>T-Attack</t>
+  </si>
+  <si>
+    <t>T-Items</t>
+  </si>
+  <si>
+    <t>T-Trade</t>
+  </si>
+  <si>
+    <t>T-Wait</t>
+  </si>
+  <si>
+    <t>Combat a foe.</t>
+  </si>
+  <si>
+    <t>Des-Attack</t>
+  </si>
+  <si>
+    <t>Use or equip items.</t>
+  </si>
+  <si>
+    <t>Des-Items</t>
+  </si>
+  <si>
+    <t>Swap items with an ally.</t>
+  </si>
+  <si>
+    <t>Des-Trade</t>
+  </si>
+  <si>
+    <t>End this unit's turn.</t>
+  </si>
+  <si>
+    <t>Des-Wait</t>
+  </si>
+  <si>
+    <t>T-Convey</t>
+  </si>
+  <si>
+    <t>Des-Convey</t>
+  </si>
+  <si>
+    <t>Convey</t>
+  </si>
+  <si>
+    <t>Store/retrieve items.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +473,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -472,15 +532,87 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2"/>
@@ -558,8 +690,23 @@
     <sortCondition ref="B4:B33"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
-      <selection activeCell="D7" sqref="D7"/>
+    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
+      <selection activeCell="C438" sqref="C438"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" topLeftCell="A420">
+      <selection activeCell="C441" sqref="C441"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
+      <selection activeCell="C529" sqref="C529"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
+      <selection activeCell="C238" sqref="C238"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -568,23 +715,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
-      <selection activeCell="C238" sqref="C238"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
-      <selection activeCell="C529" sqref="C529"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" topLeftCell="A420">
-      <selection activeCell="C441" sqref="C441"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
-      <selection activeCell="C438" sqref="C438"/>
+    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
+      <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B8CF7-787A-4FDF-A40E-AF2D64EC6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4999337-A3C2-4D56-94BB-17609D43EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3255" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -49,7 +49,7 @@
   </si>
   <si>
     <t>map,string,string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EN</t>
@@ -122,18 +122,139 @@
   </si>
   <si>
     <t>Store/retrieve items.</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Bld</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>PhAtk</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Avo</t>
+  </si>
+  <si>
+    <t>MagAtk</t>
+  </si>
+  <si>
+    <t>Ph Atk</t>
+  </si>
+  <si>
+    <t>Mag Atk</t>
+  </si>
+  <si>
+    <t>魔力</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>魔防</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>体格</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>魔攻</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>交换物品</t>
+  </si>
+  <si>
+    <t>待命</t>
+  </si>
+  <si>
+    <t>攻击敌人</t>
+  </si>
+  <si>
+    <t>使用或装备物品</t>
+  </si>
+  <si>
+    <t>和同伴交换物品</t>
+  </si>
+  <si>
+    <t>结束行动</t>
+  </si>
+  <si>
+    <t>运输队</t>
+  </si>
+  <si>
+    <t>存取物品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,20 +274,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,29 +319,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,149 +648,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D571"/>
+  <dimension ref="A1:D568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2"/>
@@ -641,53 +1003,41 @@
     <row r="40" spans="2:4">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="140" spans="3:3">
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="3:3">
-      <c r="C141" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="2"/>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="2"/>
     </row>
     <row r="437" spans="3:3">
       <c r="C437" s="2"/>
     </row>
-    <row r="439" spans="3:3">
-      <c r="C439" s="2"/>
-    </row>
-    <row r="440" spans="3:3">
-      <c r="C440" s="2"/>
-    </row>
-    <row r="450" spans="3:3">
-      <c r="C450" s="2"/>
-    </row>
-    <row r="471" spans="3:3">
-      <c r="C471" s="2"/>
-    </row>
-    <row r="472" spans="3:3">
-      <c r="C472" s="2"/>
-    </row>
-    <row r="570" spans="4:4">
-      <c r="D570"/>
-    </row>
-    <row r="571" spans="4:4">
-      <c r="D571"/>
+    <row r="447" spans="3:3">
+      <c r="C447" s="2"/>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="2"/>
+    </row>
+    <row r="567" spans="4:4">
+      <c r="D567"/>
+    </row>
+    <row r="568" spans="4:4">
+      <c r="D568"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E33">
-    <sortCondition ref="B4:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E30">
+    <sortCondition ref="B4:B30"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
@@ -725,7 +1075,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4999337-A3C2-4D56-94BB-17609D43EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA93F1-AC2F-45DC-B0A7-7C933D479232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,18 +17,18 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4440194B-0379-4F64-885A-7710C3866B10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="相钰 - 个人视图" guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{7C5630AF-7044-4F4D-A603-52BF43369206}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4440194B-0379-4F64-885A-7710C3866B10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -199,9 +199,6 @@
     <t>命中</t>
   </si>
   <si>
-    <t>闪避</t>
-  </si>
-  <si>
     <t>物攻</t>
   </si>
   <si>
@@ -236,6 +233,72 @@
   </si>
   <si>
     <t>存取物品</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>Ddg</t>
+  </si>
+  <si>
+    <t>必杀</t>
+  </si>
+  <si>
+    <t>必回</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Covert</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Mystical</t>
+  </si>
+  <si>
+    <t>QiAdept</t>
+  </si>
+  <si>
+    <t>Qi Adept</t>
+  </si>
+  <si>
+    <t>重装</t>
+  </si>
+  <si>
+    <t>连携</t>
+  </si>
+  <si>
+    <t>骑马</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>龙族</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>魔道</t>
+  </si>
+  <si>
+    <t>气功</t>
   </si>
 </sst>
 </file>
@@ -650,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D568"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -719,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -730,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -741,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -752,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -763,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -774,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -785,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -796,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -807,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -818,7 +881,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -928,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -950,7 +1013,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -961,36 +1024,118 @@
         <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2"/>
@@ -1040,8 +1185,23 @@
     <sortCondition ref="B4:B30"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
-      <selection activeCell="C438" sqref="C438"/>
+    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
+      <selection activeCell="D7" sqref="D7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
+      <selection activeCell="C238" sqref="C238"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
+      <selection activeCell="C529" sqref="C529"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -1050,23 +1210,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{D6497FB9-E619-41B8-B293-589EBFF8CDE1}" topLeftCell="A512">
-      <selection activeCell="C529" sqref="C529"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{87E04A0B-E1BB-47DF-9725-00C988384D9D}" topLeftCell="A220">
-      <selection activeCell="C238" sqref="C238"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{5AB2D225-C03A-44B9-B85B-DF44A9B18A0B}">
-      <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{4440194B-0379-4F64-885A-7710C3866B10}">
-      <selection activeCell="D7" sqref="D7"/>
+    <customSheetView guid="{D7318A5E-EC75-4692-8B8C-EA0A8217C4DC}" topLeftCell="A414">
+      <selection activeCell="C438" sqref="C438"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA93F1-AC2F-45DC-B0A7-7C933D479232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4F93BC-F3FA-4875-A000-C5EC56C87272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -299,6 +299,48 @@
   </si>
   <si>
     <t>气功</t>
+  </si>
+  <si>
+    <t>HealOnTurn</t>
+  </si>
+  <si>
+    <t>DamageOnTurn</t>
+  </si>
+  <si>
+    <t>每回合受伤</t>
+  </si>
+  <si>
+    <t>每回合回复</t>
+  </si>
+  <si>
+    <t>Heal/Turn</t>
+  </si>
+  <si>
+    <t>Take Damage/Turn</t>
+  </si>
+  <si>
+    <t>Unbreakable</t>
+  </si>
+  <si>
+    <t>免疫击破</t>
+  </si>
+  <si>
+    <t>DefResFoe</t>
+  </si>
+  <si>
+    <t>DefResAlly</t>
+  </si>
+  <si>
+    <t>Def/Res for Foe</t>
+  </si>
+  <si>
+    <t>Def/Res for Ally</t>
+  </si>
+  <si>
+    <t>敌方防御/魔防</t>
+  </si>
+  <si>
+    <t>友方防御/魔防</t>
   </si>
 </sst>
 </file>
@@ -713,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1138,17 +1180,59 @@
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="2"/>

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4F93BC-F3FA-4875-A000-C5EC56C87272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3043F3B-D013-48F6-B43D-CB75A9BB0ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>##var</t>
   </si>
@@ -341,6 +341,39 @@
   </si>
   <si>
     <t>友方防御/魔防</t>
+  </si>
+  <si>
+    <t>FliersOnly</t>
+  </si>
+  <si>
+    <t>Impassable</t>
+  </si>
+  <si>
+    <t>仅飞行单位</t>
+  </si>
+  <si>
+    <t>不可逾越</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>Pn Atk</t>
+  </si>
+  <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>特殊伤害</t>
   </si>
 </sst>
 </file>
@@ -755,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1232,6 +1265,61 @@
       </c>
       <c r="D42" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="3:3">

--- a/Datas/Language.xlsx
+++ b/Datas/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3043F3B-D013-48F6-B43D-CB75A9BB0ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37E7EF-C213-47E0-9E98-9E2593A0E1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>特殊伤害</t>
+  </si>
+  <si>
+    <t>PnAtk</t>
+  </si>
+  <si>
+    <t>特殊攻击</t>
+  </si>
+  <si>
+    <t>Atk</t>
   </si>
 </sst>
 </file>
@@ -788,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1320,6 +1329,28 @@
       </c>
       <c r="D47" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="3:3">
